--- a/TC.xlsx
+++ b/TC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>Test Case #</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -383,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,37 +430,45 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -477,6 +488,12 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TC.xlsx
+++ b/TC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>Test Case #</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -383,7 +389,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,16 +443,32 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>

--- a/TC.xlsx
+++ b/TC.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
   <si>
     <t>Test Case #</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
 </sst>
 </file>
@@ -386,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,51 +433,59 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -488,6 +499,12 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TC.xlsx
+++ b/TC.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>Test Case #</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
   </si>
   <si>
     <t>C</t>
@@ -389,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,18 +433,18 @@
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
@@ -461,7 +458,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>6</v>
@@ -474,18 +471,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -499,12 +488,6 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
